--- a/format/litigacion/temp/tmp_AUTO DE NO VINCULACION DEL 2019 al 2023.xlsx
+++ b/format/litigacion/temp/tmp_AUTO DE NO VINCULACION DEL 2019 al 2023.xlsx
@@ -3559,12 +3559,13 @@
   <dimension ref="A1:A118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">

--- a/format/litigacion/temp/tmp_AUTO DE NO VINCULACION DEL 2019 al 2023.xlsx
+++ b/format/litigacion/temp/tmp_AUTO DE NO VINCULACION DEL 2019 al 2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5347" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5354" uniqueCount="1069">
   <si>
     <t>idEstatusNucs</t>
   </si>
@@ -3214,6 +3214,27 @@
   </si>
   <si>
     <t>AÑO</t>
+  </si>
+  <si>
+    <t>1003x01909547</t>
+  </si>
+  <si>
+    <t>100c3201829799</t>
+  </si>
+  <si>
+    <t>10032018v24308</t>
+  </si>
+  <si>
+    <t>1003201cvc820827</t>
+  </si>
+  <si>
+    <t>10032017cv45429</t>
+  </si>
+  <si>
+    <t>100dfg7201927147</t>
+  </si>
+  <si>
+    <t>1003f201911110</t>
   </si>
 </sst>
 </file>
@@ -3559,7 +3580,7 @@
   <dimension ref="A1:A118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3569,13 +3590,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1003201824308</v>
+      <c r="A1" s="1" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1003201820827</v>
+      <c r="A2" s="1" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -3589,8 +3610,8 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1003201829799</v>
+      <c r="A5" s="1" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -3624,13 +3645,13 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1003201909547</v>
+      <c r="A12" s="1" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1003201745429</v>
+      <c r="A13" s="1" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -4029,8 +4050,8 @@
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>1007201927147</v>
+      <c r="A93" s="1" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
@@ -4069,8 +4090,8 @@
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>1003201911110</v>
+      <c r="A101" s="1" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
